--- a/OTHERS/Investment/StockMarket/Investment-Transaction-InZerodha.xlsx
+++ b/OTHERS/Investment/StockMarket/Investment-Transaction-InZerodha.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\03-PC\Technologies-GITHUB\OTHERS\Investment\StockMarket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A6CBD6-D381-4A46-A98D-B5248EDDABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550ED485-3847-45DF-8319-A7954B608E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -100,11 +100,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -113,6 +124,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -593,6 +607,39 @@
       </c>
       <c r="E13" s="1"/>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>45355</v>
+      </c>
+      <c r="B14" s="8">
+        <v>71000</v>
+      </c>
+      <c r="D14" s="10">
+        <v>795442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B15" s="8">
+        <v>72000</v>
+      </c>
+      <c r="D15" s="10">
+        <v>867442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>45372</v>
+      </c>
+      <c r="B16" s="8">
+        <v>15000</v>
+      </c>
+      <c r="D16" s="10">
+        <v>882442</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/OTHERS/Investment/StockMarket/Investment-Transaction-InZerodha.xlsx
+++ b/OTHERS/Investment/StockMarket/Investment-Transaction-InZerodha.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\03-PC\Technologies-GITHUB\OTHERS\Investment\StockMarket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550ED485-3847-45DF-8319-A7954B608E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A82584-058A-4E7A-AF1D-6460401AF20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FY24" sheetId="1" r:id="rId1"/>
+    <sheet name="FY25" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -40,22 +41,98 @@
   </si>
   <si>
     <t>Withdrawn amount</t>
+  </si>
+  <si>
+    <t>Balance as on March 31st</t>
+  </si>
+  <si>
+    <t>Profits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% of returns </t>
+  </si>
+  <si>
+    <t>Mutual funds</t>
+  </si>
+  <si>
+    <t>1,06,601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return </t>
+  </si>
+  <si>
+    <t>STOCK</t>
+  </si>
+  <si>
+    <t>MUTUAL FUND</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>12,34,331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started FY25 with </t>
+  </si>
+  <si>
+    <t>11,83,232</t>
+  </si>
+  <si>
+    <t>11,92,162</t>
+  </si>
+  <si>
+    <t>11,81,664</t>
+  </si>
+  <si>
+    <t>9,63,260</t>
+  </si>
+  <si>
+    <t>9,73,260</t>
+  </si>
+  <si>
+    <t>10,22,683</t>
+  </si>
+  <si>
+    <t>10,43,283</t>
+  </si>
+  <si>
+    <t>10,53,283</t>
+  </si>
+  <si>
+    <t>10,73,283</t>
+  </si>
+  <si>
+    <t>10,93,283</t>
+  </si>
+  <si>
+    <t>11,53,283</t>
+  </si>
+  <si>
+    <t>13,03,383</t>
+  </si>
+  <si>
+    <t>12,99,968</t>
+  </si>
+  <si>
+    <t>Dividend</t>
+  </si>
+  <si>
+    <t>12,61,361</t>
+  </si>
+  <si>
+    <t>12,40,534</t>
+  </si>
+  <si>
+    <t>11,94,950</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -123,10 +200,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,22 +484,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" customWidth="1"/>
-    <col min="4" max="4" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.15625" customWidth="1"/>
+    <col min="7" max="7" width="30.26171875" customWidth="1"/>
+    <col min="8" max="8" width="11.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -439,7 +518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>45169</v>
       </c>
@@ -454,7 +533,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>45175</v>
       </c>
@@ -469,7 +548,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>45194</v>
       </c>
@@ -483,8 +562,14 @@
         <v>959296</v>
       </c>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>882442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>45204</v>
       </c>
@@ -496,8 +581,14 @@
         <v>996296</v>
       </c>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1234331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>45206</v>
       </c>
@@ -511,8 +602,14 @@
         <v>992931</v>
       </c>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="7">
+        <v>351889.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>45252</v>
       </c>
@@ -526,8 +623,14 @@
         <v>942579</v>
       </c>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="9">
+        <v>39.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>45261</v>
       </c>
@@ -542,7 +645,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>45294</v>
       </c>
@@ -555,7 +658,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>45296</v>
       </c>
@@ -568,7 +671,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>45308</v>
       </c>
@@ -581,7 +684,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>45316</v>
       </c>
@@ -594,7 +697,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>45338</v>
       </c>
@@ -602,43 +705,449 @@
         <v>15000</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <v>724442</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2">
         <v>45355</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="5">
         <v>71000</v>
       </c>
-      <c r="D14" s="10">
+      <c r="C14" s="1"/>
+      <c r="D14" s="3">
         <v>795442</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2">
         <v>45362</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="5">
         <v>72000</v>
       </c>
-      <c r="D15" s="10">
+      <c r="C15" s="1"/>
+      <c r="D15" s="3">
         <v>867442</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2">
         <v>45372</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="5">
         <v>15000</v>
       </c>
-      <c r="D16" s="10">
+      <c r="C16" s="1"/>
+      <c r="D16" s="3">
         <v>882442</v>
       </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="3">
+        <v>94995</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>12.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B3C8C9-0285-49F2-88AE-AD44E75B0E1C}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="12.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.15625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.41796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.68359375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2">
+        <v>45384</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="10">
+        <v>51099</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
+        <v>45385</v>
+      </c>
+      <c r="B5" s="10">
+        <v>51099</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
+        <v>45391</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>42169</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
+        <v>45402</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>10518</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2">
+        <v>45405</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
+        <v>218404</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
+        <v>45405</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
+        <v>45406</v>
+      </c>
+      <c r="B10" s="3">
+        <v>49423</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
+        <v>45406</v>
+      </c>
+      <c r="B11" s="1">
+        <v>20600</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
+        <v>45414</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
+        <v>45422</v>
+      </c>
+      <c r="B13" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2">
+        <v>45427</v>
+      </c>
+      <c r="B14" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2">
+        <v>45436</v>
+      </c>
+      <c r="B15" s="1">
+        <v>60000</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2">
+        <v>45447</v>
+      </c>
+      <c r="B16" s="1">
+        <v>150100</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
+        <v>45475</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3">
+        <v>3415</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2">
+        <v>45491</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3">
+        <v>38607</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
+        <v>45491</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3">
+        <v>20827</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2">
+        <v>45491</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3">
+        <v>45584</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2">
+        <v>45017</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OTHERS/Investment/StockMarket/Investment-Transaction-InZerodha.xlsx
+++ b/OTHERS/Investment/StockMarket/Investment-Transaction-InZerodha.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\03-PC\Technologies-GITHUB\OTHERS\Investment\StockMarket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A82584-058A-4E7A-AF1D-6460401AF20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC98C5CA-2DD1-4CBA-86AB-6F984D36D7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>11,94,950</t>
+  </si>
+  <si>
+    <t>12,16,676</t>
+  </si>
+  <si>
+    <t>12,06,832</t>
+  </si>
+  <si>
+    <t>11,36,080</t>
+  </si>
+  <si>
+    <t>10,76,069</t>
   </si>
 </sst>
 </file>
@@ -192,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -204,6 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,10 +806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B3C8C9-0285-49F2-88AE-AD44E75B0E1C}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1074,80 +1087,129 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2">
+        <v>45501</v>
+      </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="3">
+        <v>21726</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="2">
+        <v>45501</v>
+      </c>
+      <c r="B22" s="1">
+        <v>9844</v>
+      </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2">
+        <v>45519</v>
+      </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
+      <c r="C23" s="3">
+        <v>70752</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2">
+        <v>45529</v>
+      </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="C24" s="3">
+        <v>60011</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2">
-        <v>45017</v>
-      </c>
-      <c r="B28" s="3" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C30" s="3">
         <v>0</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="11">
+        <v>45519</v>
+      </c>
+      <c r="C31" s="7">
+        <v>24141</v>
+      </c>
+      <c r="D31" s="7">
+        <v>82460</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
